--- a/Data_intake_Simple_example.xlsx
+++ b/Data_intake_Simple_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acc7e751ce391cfb/Documents/Project Preston/Projects/Simple_example_report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simva\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="8_{B931DDA1-F849-4A85-BE94-424C19118BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC8345B4-590A-405C-84F9-0765F254BDFF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE866A8-4680-4D25-AEE8-10832C257A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issuer Info" sheetId="5" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <sheet name="Education" sheetId="11" r:id="rId11"/>
     <sheet name="Affordable Housing" sheetId="16" r:id="rId12"/>
     <sheet name="Land Use" sheetId="12" r:id="rId13"/>
-    <sheet name="Non-Aligned Projects" sheetId="14" r:id="rId14"/>
-    <sheet name="Dropdowns - HIDDEN" sheetId="7" r:id="rId15"/>
+    <sheet name="Non-Aligned Projects" sheetId="14" state="hidden" r:id="rId14"/>
+    <sheet name="Dropdowns - HIDDEN" sheetId="7" state="hidden" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="1039">
   <si>
     <t>EV</t>
   </si>
@@ -3103,63 +3103,9 @@
     <t>Coupon/Interest</t>
   </si>
   <si>
-    <t>GBDN00001-X3</t>
-  </si>
-  <si>
-    <t>GBDN00001-X4</t>
-  </si>
-  <si>
-    <t>My build</t>
-  </si>
-  <si>
-    <t>My build II</t>
-  </si>
-  <si>
-    <t>Mycars</t>
-  </si>
-  <si>
-    <t>Mycars II</t>
-  </si>
-  <si>
-    <t>MyTrain</t>
-  </si>
-  <si>
-    <t>MyTrain II</t>
-  </si>
-  <si>
-    <t>MyFreight</t>
-  </si>
-  <si>
-    <t>MyFreight II</t>
-  </si>
-  <si>
-    <t>MyWTE</t>
-  </si>
-  <si>
-    <t>MyWTE II</t>
-  </si>
-  <si>
     <t>MySME</t>
   </si>
   <si>
-    <t>MySME II</t>
-  </si>
-  <si>
-    <t>MyHospital</t>
-  </si>
-  <si>
-    <t>MyEDu</t>
-  </si>
-  <si>
-    <t>MyHousing</t>
-  </si>
-  <si>
-    <t>MyHousing II</t>
-  </si>
-  <si>
-    <t>MyForest</t>
-  </si>
-  <si>
     <t>Number of Patients</t>
   </si>
   <si>
@@ -3206,9 +3152,6 @@
   </si>
   <si>
     <t>AH-TargetPOP</t>
-  </si>
-  <si>
-    <t>Low-income</t>
   </si>
   <si>
     <t>Elderly</t>
@@ -3428,10 +3371,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3836,9 +3775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B7615C-6D07-4F76-A9ED-92C66F2687FC}">
   <dimension ref="A1:G782"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="105" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView zoomScale="105" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3879,7 +3816,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>19</v>
@@ -3889,41 +3826,15 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G3" s="23">
-        <v>1</v>
-      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>309</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="9"/>
       <c r="F4" s="3"/>
       <c r="G4" s="23"/>
@@ -6335,7 +6246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DCE5D9-FF2D-4F89-B3ED-0AB42DB464E8}">
   <dimension ref="A1:H747"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6390,44 +6303,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0.5</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="9">
-        <v>100000</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="9"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -9405,7 +9288,7 @@
   <dimension ref="A1:M217"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="98" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -9481,44 +9364,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="9">
-        <v>10000</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H3" s="23">
-        <v>1</v>
-      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>309</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
       <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
@@ -10205,8 +10057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4420C4-68F6-41E8-BD33-3519CE530958}">
   <dimension ref="A1:G763"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -10256,27 +10108,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G3" s="23">
-        <v>1</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="D4" s="3"/>
@@ -13043,7 +12878,7 @@
   <dimension ref="A1:T464"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13105,13 +12940,13 @@
         <v>982</v>
       </c>
       <c r="R1" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
       <c r="S1" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="T1" t="s">
-        <v>1048</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -13125,13 +12960,13 @@
         <v>997</v>
       </c>
       <c r="R2" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="S2" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
       <c r="T2" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -13184,13 +13019,13 @@
         <v>998</v>
       </c>
       <c r="R3" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="S3" t="s">
         <v>65</v>
       </c>
       <c r="T3" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -13240,13 +13075,13 @@
         <v>999</v>
       </c>
       <c r="R4" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="S4" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="T4" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -13293,13 +13128,13 @@
         <v>1000</v>
       </c>
       <c r="R5" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="S5" t="s">
-        <v>1053</v>
+        <v>1034</v>
       </c>
       <c r="T5" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -13343,10 +13178,10 @@
         <v>1001</v>
       </c>
       <c r="R6" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="S6" t="s">
-        <v>1054</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -13384,10 +13219,10 @@
         <v>1004</v>
       </c>
       <c r="R7" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
       <c r="S7" t="s">
-        <v>1055</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -13422,7 +13257,7 @@
         <v>1003</v>
       </c>
       <c r="R8" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -13454,7 +13289,7 @@
         <v>1005</v>
       </c>
       <c r="R9" t="s">
-        <v>1046</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -13486,7 +13321,7 @@
         <v>1006</v>
       </c>
       <c r="R10" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
@@ -16930,7 +16765,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="A4" sqref="A4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -17007,56 +16842,22 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="F4" s="6">
-        <v>45099</v>
-      </c>
-      <c r="G4" s="7">
-        <v>3</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0.03</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="E5" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="F5" s="6">
-        <v>45099</v>
-      </c>
-      <c r="G5" s="7">
-        <v>3</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.03</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D6" s="7"/>
@@ -17460,7 +17261,7 @@
   <dimension ref="A1:H843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="11.4" x14ac:dyDescent="0.4"/>
@@ -20879,7 +20680,7 @@
   <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
@@ -20925,7 +20726,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>989</v>
@@ -20934,52 +20735,28 @@
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>510</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="23">
-        <v>0.6</v>
-      </c>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>311</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -21427,45 +21204,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>280</v>
-      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3"/>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="3">
-        <v>100</v>
-      </c>
-      <c r="G4" s="24">
-        <v>1</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C5" s="9"/>
@@ -22253,47 +21999,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1000000000</v>
-      </c>
-      <c r="H3" s="22">
-        <v>1</v>
-      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
       <c r="G4" s="9"/>
       <c r="H4" s="22"/>
     </row>
@@ -23077,44 +22790,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="9">
-        <v>10000000</v>
-      </c>
-      <c r="G3" s="23">
-        <v>1</v>
-      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
       <c r="F4" s="9"/>
       <c r="G4" s="23"/>
     </row>
@@ -23870,44 +23553,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F3" s="9">
-        <v>500</v>
-      </c>
-      <c r="G3" s="9">
-        <v>2500</v>
-      </c>
-      <c r="H3" s="23">
-        <v>1</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" ht="13.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>309</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="21"/>
@@ -26726,7 +26385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A9C71A-17F9-429F-ACDB-00E956B83027}">
   <dimension ref="A1:I451"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -26782,7 +26441,7 @@
         <v>993</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>9</v>
@@ -26790,7 +26449,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>103</v>
@@ -26818,18 +26477,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>309</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
